--- a/unittests/test_time_tables/full_time_undergraduate_imist/1_imist_12.xlsx
+++ b/unittests/test_time_tables/full_time_undergraduate_imist/1_imist_12.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AACDFE-2A0B-4F1B-B744-B6859293B155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD99C52-BD1F-4131-B29B-2042D7743FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="729" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2311,8 +2311,8 @@
     <t>Чудаев М.Е.</t>
   </si>
   <si>
-    <t>Производственая практика
-21.03. - 03.05.</t>
+    <t>Производственная практика
+21.03. - 03.05</t>
   </si>
 </sst>
 </file>
